--- a/tutorial 2.xlsx
+++ b/tutorial 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="8010"/>
@@ -11,8 +11,16 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>tunc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,13 +61,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
     <a:clrScheme name="Ofis">
       <a:dk1>
@@ -345,10 +381,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
